--- a/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_2.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/2000000/Output_0_2.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1903983.066208412</v>
+        <v>-1905980.739221256</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>346604.359600232</v>
+        <v>280634.9237789058</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>13.784170020795</v>
       </c>
       <c r="H2" t="n">
         <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,7 +704,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>135.0926011818561</v>
+        <v>286.2762568002606</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>205.6826957773041</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>39.10494780290184</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -859,7 +859,7 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -868,13 +868,13 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>147.3596012393434</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -899,19 +899,19 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>155.108250577354</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -947,13 +947,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>326.2396125556947</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.42221998250818</v>
+        <v>61.42221998250819</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229331</v>
+        <v>49.71123688229332</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>155.2114886365809</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>144.8086284801604</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>248.1538656743043</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>13.784170020795</v>
       </c>
       <c r="H8" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>151.9313162448613</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,28 +1178,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>54.47840257481171</v>
+        <v>54.4784025748117</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>174.4157128089715</v>
       </c>
       <c r="T8" t="n">
         <v>216.4483203576578</v>
       </c>
       <c r="U8" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>204.912490647784</v>
       </c>
     </row>
     <row r="9">
@@ -1291,28 +1291,28 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>54.34256285505341</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>167.3098022590509</v>
+        <v>163.8608514409111</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J10" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853699</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1333,7 +1333,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>29.1227499549143</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -1382,13 +1382,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>411.9645167896915</v>
+        <v>411.9645167896909</v>
       </c>
       <c r="H11" t="n">
         <v>305.2872491113177</v>
       </c>
       <c r="I11" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,10 +1418,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T11" t="n">
-        <v>208.482788338502</v>
+        <v>208.4827883385019</v>
       </c>
       <c r="U11" t="n">
         <v>251.078595249801</v>
@@ -1467,7 +1467,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I12" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1531,16 +1531,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>166.4935684633776</v>
+        <v>127.8328334253825</v>
       </c>
       <c r="H13" t="n">
         <v>148.9138283675361</v>
@@ -1582,19 +1582,19 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>181.8197827477294</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1613,7 +1613,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
-        <v>381.9303700722609</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F14" t="n">
         <v>406.8760457417114</v>
@@ -1622,10 +1622,10 @@
         <v>411.9645167896915</v>
       </c>
       <c r="H14" t="n">
-        <v>305.2872491113176</v>
+        <v>305.2872491113177</v>
       </c>
       <c r="I14" t="n">
-        <v>81.77913505274077</v>
+        <v>81.7791350527408</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560518</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I15" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014445</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1762,13 +1762,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>102.8244192922428</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1822,16 +1822,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>218.1288550661441</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1862,7 +1862,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I17" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274049</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>85.34402028510408</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H19" t="n">
         <v>148.9138283675361</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>110.419245464272</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>197.9208099836032</v>
       </c>
       <c r="T19" t="n">
         <v>221.5475610583892</v>
@@ -2059,16 +2059,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>6.873165368858299</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2141,13 +2141,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2236,10 +2236,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>107.3850040614683</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -2248,10 +2248,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>166.4935684633776</v>
       </c>
       <c r="H22" t="n">
         <v>148.9138283675361</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5475610583892</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>178.0344873527949</v>
       </c>
     </row>
     <row r="23">
@@ -2336,7 +2336,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I23" t="n">
-        <v>81.77913505274071</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2415,7 +2415,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I24" t="n">
-        <v>27.90133207014441</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C25" t="n">
-        <v>99.11493096898812</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D25" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E25" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F25" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329028</v>
       </c>
       <c r="G25" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H25" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I25" t="n">
-        <v>42.28735533463129</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.83246227415209</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S25" t="n">
         <v>129.7889198539626</v>
@@ -2533,16 +2533,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V25" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W25" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X25" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y25" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="26">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C28" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D28" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E28" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F28" t="n">
-        <v>77.28915789329113</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G28" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H28" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I28" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463136</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S28" t="n">
         <v>129.7889198539626</v>
@@ -2770,16 +2770,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V28" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W28" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X28" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y28" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="29">
@@ -2810,7 +2810,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I29" t="n">
-        <v>81.77913505274074</v>
+        <v>81.77913505274077</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>132.9503648051988</v>
+        <v>132.9503648051989</v>
       </c>
       <c r="T29" t="n">
         <v>208.4827883385019</v>
@@ -2889,7 +2889,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I30" t="n">
-        <v>27.90133207014443</v>
+        <v>27.90133207014444</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,28 +2947,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C31" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D31" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E31" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F31" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G31" t="n">
-        <v>98.36167833373692</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H31" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I31" t="n">
-        <v>42.2873553346313</v>
+        <v>42.28735533463135</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,10 +2995,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>41.83246227415211</v>
+        <v>41.83246227415216</v>
       </c>
       <c r="S31" t="n">
-        <v>129.7889198539631</v>
+        <v>129.7889198539626</v>
       </c>
       <c r="T31" t="n">
         <v>153.4156709287486</v>
@@ -3007,16 +3007,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V31" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W31" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069496</v>
       </c>
       <c r="X31" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y31" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="32">
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3047,7 +3047,7 @@
         <v>305.2872491113177</v>
       </c>
       <c r="I32" t="n">
-        <v>81.77913505274077</v>
+        <v>81.77913505274074</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>132.9503648051989</v>
+        <v>132.9503648051988</v>
       </c>
       <c r="T32" t="n">
         <v>208.4827883385019</v>
@@ -3126,7 +3126,7 @@
         <v>94.98542483262921</v>
       </c>
       <c r="I33" t="n">
-        <v>27.90133207014444</v>
+        <v>27.90133207014443</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>111.7000900522966</v>
+        <v>111.7000900522967</v>
       </c>
       <c r="C34" t="n">
-        <v>99.11493096898715</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D34" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E34" t="n">
-        <v>78.30207251692849</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F34" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G34" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373696</v>
       </c>
       <c r="H34" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I34" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S34" t="n">
         <v>129.7889198539626</v>
@@ -3244,16 +3244,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V34" t="n">
-        <v>184.0057531941873</v>
+        <v>184.0057531941874</v>
       </c>
       <c r="W34" t="n">
-        <v>218.3911082069503</v>
+        <v>218.3911082069504</v>
       </c>
       <c r="X34" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y34" t="n">
-        <v>150.4527632224541</v>
+        <v>150.4527632224542</v>
       </c>
     </row>
     <row r="35">
@@ -3263,7 +3263,7 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
         <v>365.2728917710076</v>
@@ -3424,25 +3424,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C37" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D37" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E37" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F37" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G37" t="n">
-        <v>98.36167833373698</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H37" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I37" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S37" t="n">
         <v>129.7889198539626</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206827</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3661,25 +3661,25 @@
         <v>111.7000900522967</v>
       </c>
       <c r="C40" t="n">
-        <v>99.11493096898721</v>
+        <v>99.1149309689872</v>
       </c>
       <c r="D40" t="n">
-        <v>80.48358288857173</v>
+        <v>80.48358288857172</v>
       </c>
       <c r="E40" t="n">
-        <v>78.30207251692855</v>
+        <v>78.30207251692853</v>
       </c>
       <c r="F40" t="n">
-        <v>77.28915789329062</v>
+        <v>77.28915789329061</v>
       </c>
       <c r="G40" t="n">
-        <v>98.36167833373696</v>
+        <v>98.36167833373695</v>
       </c>
       <c r="H40" t="n">
-        <v>80.7819382378955</v>
+        <v>80.78193823789549</v>
       </c>
       <c r="I40" t="n">
-        <v>42.28735533463136</v>
+        <v>42.28735533463134</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.83246227415216</v>
+        <v>41.83246227415215</v>
       </c>
       <c r="S40" t="n">
         <v>129.7889198539626</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>111.7000900522967</v>
+        <v>111.7000900522966</v>
       </c>
       <c r="C43" t="n">
-        <v>99.1149309689872</v>
+        <v>99.11493096898715</v>
       </c>
       <c r="D43" t="n">
-        <v>80.48358288857172</v>
+        <v>80.48358288857168</v>
       </c>
       <c r="E43" t="n">
-        <v>78.30207251692853</v>
+        <v>78.30207251692849</v>
       </c>
       <c r="F43" t="n">
-        <v>77.28915789329061</v>
+        <v>77.28915789329056</v>
       </c>
       <c r="G43" t="n">
-        <v>98.36167833373695</v>
+        <v>98.3616783337369</v>
       </c>
       <c r="H43" t="n">
-        <v>80.78193823789549</v>
+        <v>80.78193823789545</v>
       </c>
       <c r="I43" t="n">
-        <v>42.28735533463134</v>
+        <v>42.2873553346313</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.83246227415215</v>
+        <v>41.83246227415211</v>
       </c>
       <c r="S43" t="n">
         <v>129.7889198539626</v>
@@ -3955,16 +3955,16 @@
         <v>218.1054622689367</v>
       </c>
       <c r="V43" t="n">
-        <v>184.0057531941874</v>
+        <v>184.0057531941873</v>
       </c>
       <c r="W43" t="n">
-        <v>218.3911082069504</v>
+        <v>218.3911082069503</v>
       </c>
       <c r="X43" t="n">
         <v>157.5777652593965</v>
       </c>
       <c r="Y43" t="n">
-        <v>150.4527632224542</v>
+        <v>150.4527632224541</v>
       </c>
     </row>
     <row r="44">
@@ -4135,25 +4135,25 @@
         <v>111.7000900522966</v>
       </c>
       <c r="C46" t="n">
-        <v>99.11493096898715</v>
+        <v>99.11493096898717</v>
       </c>
       <c r="D46" t="n">
-        <v>80.48358288857168</v>
+        <v>80.48358288857169</v>
       </c>
       <c r="E46" t="n">
-        <v>78.30207251692849</v>
+        <v>78.3020725169285</v>
       </c>
       <c r="F46" t="n">
-        <v>77.28915789329056</v>
+        <v>77.28915789329058</v>
       </c>
       <c r="G46" t="n">
-        <v>98.3616783337369</v>
+        <v>98.36167833373692</v>
       </c>
       <c r="H46" t="n">
-        <v>80.78193823789545</v>
+        <v>80.78193823789546</v>
       </c>
       <c r="I46" t="n">
-        <v>42.28735533463131</v>
+        <v>42.28735533463133</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.83246227415212</v>
+        <v>41.83246227415214</v>
       </c>
       <c r="S46" t="n">
         <v>129.7889198539626</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1912.117978031581</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="C2" t="n">
-        <v>1543.155461091169</v>
+        <v>1317.778685247039</v>
       </c>
       <c r="D2" t="n">
-        <v>1184.889762484419</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="E2" t="n">
-        <v>799.1015098861748</v>
+        <v>959.5129866402885</v>
       </c>
       <c r="F2" t="n">
-        <v>799.1015098861748</v>
+        <v>548.527081850681</v>
       </c>
       <c r="G2" t="n">
-        <v>381.1377017843616</v>
+        <v>534.603677789272</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
@@ -4331,10 +4331,10 @@
         <v>169.7108380533141</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733129</v>
+        <v>463.9616490733127</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224077</v>
+        <v>881.2824271224076</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2697.149091018222</v>
+        <v>2642.120401548716</v>
       </c>
       <c r="S2" t="n">
-        <v>2520.971603332393</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T2" t="n">
-        <v>2302.336936304455</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="V2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="W2" t="n">
-        <v>2048.575150942547</v>
+        <v>1993.54646147304</v>
       </c>
       <c r="X2" t="n">
-        <v>1912.117978031581</v>
+        <v>1704.378525311161</v>
       </c>
       <c r="Y2" t="n">
-        <v>1912.117978031581</v>
+        <v>1704.378525311161</v>
       </c>
     </row>
     <row r="3">
@@ -4383,25 +4383,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C3" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E3" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G3" t="n">
-        <v>221.4284102424006</v>
+        <v>221.4284102424008</v>
       </c>
       <c r="H3" t="n">
-        <v>115.9856282673424</v>
+        <v>115.9856282673427</v>
       </c>
       <c r="I3" t="n">
         <v>53.94298182036445</v>
@@ -4410,10 +4410,10 @@
         <v>129.2001442204943</v>
       </c>
       <c r="K3" t="n">
-        <v>266.2060027641987</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598706</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417901</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>262.3791120239298</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="C4" t="n">
-        <v>93.44292909602288</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="D4" t="n">
-        <v>93.44292909602288</v>
+        <v>201.8560754027576</v>
       </c>
       <c r="E4" t="n">
-        <v>93.44292909602288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="F4" t="n">
-        <v>93.44292909602288</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4507,31 +4507,31 @@
         <v>728.1289842064344</v>
       </c>
       <c r="Q4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S4" t="n">
-        <v>698.7120650600564</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T4" t="n">
-        <v>698.7120650600564</v>
+        <v>500.8207968750362</v>
       </c>
       <c r="U4" t="n">
-        <v>698.7120650600564</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="V4" t="n">
-        <v>444.0275768541695</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="W4" t="n">
-        <v>444.0275768541695</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="X4" t="n">
-        <v>444.0275768541695</v>
+        <v>351.9727148150933</v>
       </c>
       <c r="Y4" t="n">
-        <v>444.0275768541695</v>
+        <v>351.9727148150933</v>
       </c>
     </row>
     <row r="5">
@@ -4541,22 +4541,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>864.6405432696254</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="C5" t="n">
-        <v>864.6405432696254</v>
+        <v>975.5408384191576</v>
       </c>
       <c r="D5" t="n">
-        <v>864.6405432696254</v>
+        <v>617.2751398124071</v>
       </c>
       <c r="E5" t="n">
-        <v>478.8522906713811</v>
+        <v>231.4868872141629</v>
       </c>
       <c r="F5" t="n">
-        <v>67.86638588177355</v>
+        <v>224.5413864649594</v>
       </c>
       <c r="G5" t="n">
-        <v>53.94298182036445</v>
+        <v>210.6179824035503</v>
       </c>
       <c r="H5" t="n">
         <v>53.94298182036445</v>
@@ -4571,13 +4571,13 @@
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224075</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N5" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O5" t="n">
         <v>2238.843319642689</v>
@@ -4595,22 +4595,22 @@
         <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2697.149091018222</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2367.614128840753</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2014.845473570639</v>
+        <v>2125.745768720171</v>
       </c>
       <c r="X5" t="n">
-        <v>1641.379715309559</v>
+        <v>1752.280010459091</v>
       </c>
       <c r="Y5" t="n">
-        <v>1251.240383333747</v>
+        <v>1362.140678483279</v>
       </c>
     </row>
     <row r="6">
@@ -4656,10 +4656,10 @@
         <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414847</v>
+        <v>1748.695370517453</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.072755435191</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
         <v>2525.076107152626</v>
@@ -4699,19 +4699,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>370.7922583306645</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="C7" t="n">
-        <v>201.8560754027576</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="D7" t="n">
-        <v>201.8560754027576</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036445</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="G7" t="n">
         <v>53.94298182036445</v>
@@ -4744,31 +4744,31 @@
         <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="T7" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="U7" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="V7" t="n">
-        <v>552.4407231609042</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="W7" t="n">
-        <v>552.4407231609042</v>
+        <v>438.7118141694736</v>
       </c>
       <c r="X7" t="n">
-        <v>552.4407231609042</v>
+        <v>210.7222632714563</v>
       </c>
       <c r="Y7" t="n">
-        <v>552.4407231609042</v>
+        <v>210.7222632714563</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1919.063478780785</v>
+        <v>983.0286321745434</v>
       </c>
       <c r="C8" t="n">
-        <v>1550.100961840373</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="D8" t="n">
-        <v>1191.835263233623</v>
+        <v>614.0661152341316</v>
       </c>
       <c r="E8" t="n">
-        <v>806.0470106353782</v>
+        <v>228.2778626358874</v>
       </c>
       <c r="F8" t="n">
-        <v>395.0611058457707</v>
+        <v>221.3323618866839</v>
       </c>
       <c r="G8" t="n">
-        <v>381.1377017843616</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="H8" t="n">
-        <v>53.94298182036445</v>
+        <v>207.4089578252748</v>
       </c>
       <c r="I8" t="n">
         <v>53.94298182036445</v>
@@ -4808,7 +4808,7 @@
         <v>463.9616490733127</v>
       </c>
       <c r="L8" t="n">
-        <v>881.2824271224076</v>
+        <v>881.2824271224075</v>
       </c>
       <c r="M8" t="n">
         <v>1362.238747280443</v>
@@ -4829,25 +4829,25 @@
         <v>2642.120401548716</v>
       </c>
       <c r="S8" t="n">
-        <v>2642.120401548716</v>
+        <v>2465.942913862886</v>
       </c>
       <c r="T8" t="n">
-        <v>2423.485734520778</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="U8" t="n">
-        <v>2169.72394915887</v>
+        <v>2247.308246834948</v>
       </c>
       <c r="V8" t="n">
-        <v>2169.72394915887</v>
+        <v>1916.245359491378</v>
       </c>
       <c r="W8" t="n">
-        <v>2169.72394915887</v>
+        <v>1563.476704221264</v>
       </c>
       <c r="X8" t="n">
-        <v>2169.72394915887</v>
+        <v>1190.010945960184</v>
       </c>
       <c r="Y8" t="n">
-        <v>2169.72394915887</v>
+        <v>983.0286321745434</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>988.4979752170833</v>
+        <v>988.497975217083</v>
       </c>
       <c r="C9" t="n">
-        <v>814.0449459359563</v>
+        <v>814.044945935956</v>
       </c>
       <c r="D9" t="n">
-        <v>665.1105362747051</v>
+        <v>665.1105362747046</v>
       </c>
       <c r="E9" t="n">
-        <v>505.8730812692495</v>
+        <v>505.873081269249</v>
       </c>
       <c r="F9" t="n">
-        <v>359.3385232961344</v>
+        <v>359.3385232961342</v>
       </c>
       <c r="G9" t="n">
         <v>221.4284102424006</v>
@@ -4881,43 +4881,43 @@
         <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036445</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K9" t="n">
-        <v>309.190302261463</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L9" t="n">
-        <v>670.8219208598713</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M9" t="n">
-        <v>1194.968834417902</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N9" t="n">
-        <v>1748.695370517453</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O9" t="n">
-        <v>2188.831293537797</v>
+        <v>2307.072755435191</v>
       </c>
       <c r="P9" t="n">
-        <v>2525.076107152626</v>
+        <v>2643.31756905002</v>
       </c>
       <c r="Q9" t="n">
-        <v>2697.149091018223</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R9" t="n">
-        <v>2646.935720430048</v>
+        <v>2646.935720430047</v>
       </c>
       <c r="S9" t="n">
-        <v>2488.762748073964</v>
+        <v>2488.762748073963</v>
       </c>
       <c r="T9" t="n">
-        <v>2289.884200196743</v>
+        <v>2289.884200196742</v>
       </c>
       <c r="U9" t="n">
         <v>2061.714576167582</v>
       </c>
       <c r="V9" t="n">
-        <v>1826.56246793584</v>
+        <v>1826.562467935839</v>
       </c>
       <c r="W9" t="n">
         <v>1572.325111207638</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="C10" t="n">
-        <v>471.4038777286579</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="D10" t="n">
-        <v>416.5124000972908</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="E10" t="n">
-        <v>268.5993065148977</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="F10" t="n">
-        <v>268.5993065148977</v>
+        <v>559.1928012785276</v>
       </c>
       <c r="G10" t="n">
-        <v>99.59950625323012</v>
+        <v>393.6767897220517</v>
       </c>
       <c r="H10" t="n">
-        <v>99.59950625323012</v>
+        <v>235.9284171545818</v>
       </c>
       <c r="I10" t="n">
-        <v>99.59950625323012</v>
+        <v>99.5995062532301</v>
       </c>
       <c r="J10" t="n">
         <v>53.94298182036445</v>
@@ -4966,46 +4966,46 @@
         <v>110.2451748866326</v>
       </c>
       <c r="L10" t="n">
-        <v>237.819032447791</v>
+        <v>237.8190324477911</v>
       </c>
       <c r="M10" t="n">
-        <v>382.7169011658209</v>
+        <v>382.716901165821</v>
       </c>
       <c r="N10" t="n">
-        <v>529.6040388502499</v>
+        <v>529.6040388502502</v>
       </c>
       <c r="O10" t="n">
-        <v>649.2617893594901</v>
+        <v>649.2617893594903</v>
       </c>
       <c r="P10" t="n">
-        <v>728.1289842064342</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Q10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="R10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="S10" t="n">
-        <v>698.7120650600561</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="T10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="U10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="V10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="W10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="X10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
       <c r="Y10" t="n">
-        <v>471.4038777286579</v>
+        <v>728.1289842064344</v>
       </c>
     </row>
     <row r="11">
@@ -5015,7 +5015,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C11" t="n">
         <v>2059.358867610191</v>
@@ -5024,10 +5024,10 @@
         <v>1701.093169003441</v>
       </c>
       <c r="E11" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405197</v>
       </c>
       <c r="F11" t="n">
-        <v>904.3190116155888</v>
+        <v>904.319011615589</v>
       </c>
       <c r="G11" t="n">
         <v>488.193237080547</v>
@@ -5039,13 +5039,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J11" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K11" t="n">
         <v>889.2841917514083</v>
       </c>
       <c r="L11" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M11" t="n">
         <v>2388.164701515097</v>
@@ -5075,16 +5075,16 @@
         <v>4262.357857465301</v>
       </c>
       <c r="V11" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W11" t="n">
         <v>3578.526314851616</v>
       </c>
       <c r="X11" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y11" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="12">
@@ -5121,22 +5121,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K12" t="n">
-        <v>488.6335221749971</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.530591931886</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M12" t="n">
-        <v>1422.865911461588</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N12" t="n">
-        <v>1767.386567099205</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O12" t="n">
-        <v>2016.139981183168</v>
+        <v>2201.935021465331</v>
       </c>
       <c r="P12" t="n">
-        <v>2536.440602918915</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q12" t="n">
         <v>2623.573505376138</v>
@@ -5173,19 +5173,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>844.1942894808744</v>
+        <v>807.3465877976907</v>
       </c>
       <c r="C13" t="n">
-        <v>675.2581065529675</v>
+        <v>638.4104048697839</v>
       </c>
       <c r="D13" t="n">
-        <v>675.2581065529675</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="E13" t="n">
-        <v>527.3450129705744</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="F13" t="n">
-        <v>527.3450129705744</v>
+        <v>488.2937654574481</v>
       </c>
       <c r="G13" t="n">
         <v>359.1696912903951</v>
@@ -5230,19 +5230,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="V13" t="n">
-        <v>1498.916270557902</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="W13" t="n">
-        <v>1209.499100520942</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="X13" t="n">
-        <v>1209.499100520942</v>
+        <v>1209.787631771461</v>
       </c>
       <c r="Y13" t="n">
-        <v>1025.842754311114</v>
+        <v>988.9950526279305</v>
       </c>
     </row>
     <row r="14">
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2428.321384550602</v>
+        <v>2428.321384550603</v>
       </c>
       <c r="C14" t="n">
-        <v>2059.35886761019</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D14" t="n">
-        <v>1701.09316900344</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E14" t="n">
         <v>1315.304916405196</v>
@@ -5267,19 +5267,19 @@
         <v>904.3190116155888</v>
       </c>
       <c r="G14" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H14" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I14" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J14" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823781</v>
       </c>
       <c r="K14" t="n">
-        <v>889.2841917514081</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L14" t="n">
         <v>1590.888347795206</v>
@@ -5288,13 +5288,13 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N14" t="n">
-        <v>3183.709822619128</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O14" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P14" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899126</v>
       </c>
       <c r="Q14" t="n">
         <v>4801.62743720783</v>
@@ -5321,7 +5321,7 @@
         <v>3205.060556590535</v>
       </c>
       <c r="Y14" t="n">
-        <v>2814.921224614724</v>
+        <v>2814.921224614725</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J15" t="n">
-        <v>155.299447258669</v>
+        <v>263.5382936126481</v>
       </c>
       <c r="K15" t="n">
-        <v>280.6570073165065</v>
+        <v>674.4285624571608</v>
       </c>
       <c r="L15" t="n">
-        <v>894.5540770733951</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.889396603097</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N15" t="n">
-        <v>1559.410052240715</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O15" t="n">
-        <v>1808.163466324677</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P15" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q15" t="n">
         <v>2623.573505376138</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>517.9294177607301</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="C16" t="n">
-        <v>348.9932348328232</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="D16" t="n">
-        <v>348.9932348328232</v>
+        <v>356.6647764207315</v>
       </c>
       <c r="E16" t="n">
-        <v>201.0801412504301</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="F16" t="n">
-        <v>201.0801412504301</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="G16" t="n">
-        <v>201.0801412504301</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="H16" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I16" t="n">
         <v>97.21709146028584</v>
@@ -5437,19 +5437,19 @@
         <v>109.5997839241957</v>
       </c>
       <c r="K16" t="n">
-        <v>259.7851881688072</v>
+        <v>259.7851881688071</v>
       </c>
       <c r="L16" t="n">
-        <v>507.4972331799364</v>
+        <v>507.4972331799363</v>
       </c>
       <c r="M16" t="n">
-        <v>779.0639759471192</v>
+        <v>779.0639759471189</v>
       </c>
       <c r="N16" t="n">
         <v>1049.608084974667</v>
       </c>
       <c r="O16" t="n">
-        <v>1283.483062980064</v>
+        <v>1283.483062980063</v>
       </c>
       <c r="P16" t="n">
         <v>1460.082827585746</v>
@@ -5467,19 +5467,19 @@
         <v>1498.916270557902</v>
       </c>
       <c r="U16" t="n">
-        <v>1209.787631771461</v>
+        <v>1209.78763177146</v>
       </c>
       <c r="V16" t="n">
-        <v>1209.787631771461</v>
+        <v>955.1031435655735</v>
       </c>
       <c r="W16" t="n">
-        <v>920.3704617344999</v>
+        <v>734.7709667310845</v>
       </c>
       <c r="X16" t="n">
-        <v>920.3704617344999</v>
+        <v>506.7814158330672</v>
       </c>
       <c r="Y16" t="n">
-        <v>699.5778825909698</v>
+        <v>506.7814158330672</v>
       </c>
     </row>
     <row r="17">
@@ -5495,28 +5495,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D17" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E17" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F17" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155886</v>
       </c>
       <c r="G17" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805467</v>
       </c>
       <c r="H17" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822459</v>
       </c>
       <c r="I17" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J17" t="n">
         <v>365.8813331823785</v>
       </c>
       <c r="K17" t="n">
-        <v>889.2841917514074</v>
+        <v>889.2841917514082</v>
       </c>
       <c r="L17" t="n">
         <v>1590.888347795206</v>
@@ -5531,7 +5531,7 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P17" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q17" t="n">
         <v>4801.62743720783</v>
@@ -5592,25 +5592,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J18" t="n">
-        <v>263.5382936126482</v>
+        <v>207.4238825943897</v>
       </c>
       <c r="K18" t="n">
-        <v>575.7664246322204</v>
+        <v>618.3141514389024</v>
       </c>
       <c r="L18" t="n">
-        <v>1189.663494389109</v>
+        <v>1232.211221195791</v>
       </c>
       <c r="M18" t="n">
-        <v>1509.998813918811</v>
+        <v>1552.546540725493</v>
       </c>
       <c r="N18" t="n">
-        <v>1854.519469556429</v>
+        <v>1897.067196363111</v>
       </c>
       <c r="O18" t="n">
-        <v>2103.272883640391</v>
+        <v>2145.820610447073</v>
       </c>
       <c r="P18" t="n">
-        <v>2623.573505376138</v>
+        <v>2328.464088060424</v>
       </c>
       <c r="Q18" t="n">
         <v>2623.573505376138</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>542.438140992646</v>
+        <v>782.4872769945461</v>
       </c>
       <c r="C19" t="n">
-        <v>542.438140992646</v>
+        <v>613.5510940666392</v>
       </c>
       <c r="D19" t="n">
-        <v>542.438140992646</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="E19" t="n">
-        <v>394.5250474102529</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="F19" t="n">
-        <v>247.6350999123426</v>
+        <v>527.3450129705744</v>
       </c>
       <c r="G19" t="n">
-        <v>247.6350999123426</v>
+        <v>359.1696912903951</v>
       </c>
       <c r="H19" t="n">
-        <v>97.21709146028584</v>
+        <v>208.7516828383384</v>
       </c>
       <c r="I19" t="n">
         <v>97.21709146028584</v>
@@ -5695,28 +5695,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R19" t="n">
-        <v>1498.916270557902</v>
+        <v>1387.841167119728</v>
       </c>
       <c r="S19" t="n">
-        <v>1498.916270557902</v>
+        <v>1187.92115703528</v>
       </c>
       <c r="T19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="U19" t="n">
-        <v>1275.130855347408</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="V19" t="n">
-        <v>1020.446367141521</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="W19" t="n">
-        <v>731.0291971045608</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="X19" t="n">
-        <v>731.0291971045608</v>
+        <v>964.1357418247858</v>
       </c>
       <c r="Y19" t="n">
-        <v>724.0866058228858</v>
+        <v>964.1357418247858</v>
       </c>
     </row>
     <row r="20">
@@ -5750,7 +5750,7 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J20" t="n">
-        <v>365.8813331823786</v>
+        <v>365.8813331823785</v>
       </c>
       <c r="K20" t="n">
         <v>889.2841917514082</v>
@@ -5768,10 +5768,10 @@
         <v>3889.732883643323</v>
       </c>
       <c r="P20" t="n">
-        <v>4454.632848899126</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q20" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R20" t="n">
         <v>4860.854573014292</v>
@@ -5792,7 +5792,7 @@
         <v>3578.526314851616</v>
       </c>
       <c r="X20" t="n">
-        <v>3205.060556590536</v>
+        <v>3205.060556590537</v>
       </c>
       <c r="Y20" t="n">
         <v>2814.921224614725</v>
@@ -5835,16 +5835,16 @@
         <v>674.4285624571609</v>
       </c>
       <c r="L21" t="n">
-        <v>1288.32563221405</v>
+        <v>1189.663494389109</v>
       </c>
       <c r="M21" t="n">
-        <v>1608.660951743751</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N21" t="n">
-        <v>1953.181607381369</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O21" t="n">
-        <v>2201.935021465331</v>
+        <v>2103.272883640391</v>
       </c>
       <c r="P21" t="n">
         <v>2623.573505376138</v>
@@ -5884,19 +5884,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>545.6648329070714</v>
+        <v>1029.666285013068</v>
       </c>
       <c r="C22" t="n">
-        <v>545.6648329070714</v>
+        <v>860.7301020851612</v>
       </c>
       <c r="D22" t="n">
-        <v>395.5481934947356</v>
+        <v>710.6134626728254</v>
       </c>
       <c r="E22" t="n">
-        <v>247.6350999123426</v>
+        <v>562.7003690904323</v>
       </c>
       <c r="F22" t="n">
-        <v>247.6350999123426</v>
+        <v>415.8104215925219</v>
       </c>
       <c r="G22" t="n">
         <v>247.6350999123426</v>
@@ -5932,28 +5932,28 @@
         <v>1498.916270557902</v>
       </c>
       <c r="R22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="S22" t="n">
-        <v>1387.841167119728</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="T22" t="n">
-        <v>1164.055751909234</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="U22" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="V22" t="n">
-        <v>874.9271131227918</v>
+        <v>1498.916270557902</v>
       </c>
       <c r="W22" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="X22" t="n">
-        <v>874.9271131227918</v>
+        <v>1209.499100520942</v>
       </c>
       <c r="Y22" t="n">
-        <v>654.1345339792616</v>
+        <v>1029.666285013068</v>
       </c>
     </row>
     <row r="23">
@@ -5963,25 +5963,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C23" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.35886761019</v>
       </c>
       <c r="D23" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E23" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F23" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155879</v>
       </c>
       <c r="G23" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805462</v>
       </c>
       <c r="H23" t="n">
-        <v>179.8222783822466</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I23" t="n">
         <v>97.21709146028584</v>
@@ -5990,10 +5990,10 @@
         <v>365.8813331823787</v>
       </c>
       <c r="K23" t="n">
-        <v>889.2841917514083</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L23" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M23" t="n">
         <v>2388.164701515097</v>
@@ -6002,37 +6002,37 @@
         <v>3183.709822619128</v>
       </c>
       <c r="O23" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P23" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q23" t="n">
         <v>4801.62743720783</v>
       </c>
       <c r="R23" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S23" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231263</v>
       </c>
       <c r="T23" t="n">
-        <v>4515.972600141868</v>
+        <v>4515.972600141867</v>
       </c>
       <c r="U23" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.3578574653</v>
       </c>
       <c r="V23" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.294970121729</v>
       </c>
       <c r="W23" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851615</v>
       </c>
       <c r="X23" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590535</v>
       </c>
       <c r="Y23" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="24">
@@ -6054,31 +6054,31 @@
         <v>504.8063651047445</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2718071316294</v>
+        <v>358.2718071316295</v>
       </c>
       <c r="G24" t="n">
-        <v>221.3451287358147</v>
+        <v>221.3451287358148</v>
       </c>
       <c r="H24" t="n">
-        <v>125.4002551675024</v>
+        <v>125.4002551675025</v>
       </c>
       <c r="I24" t="n">
         <v>97.21709146028584</v>
       </c>
       <c r="J24" t="n">
-        <v>263.5382936126483</v>
+        <v>164.8761557877077</v>
       </c>
       <c r="K24" t="n">
-        <v>575.7664246322197</v>
+        <v>575.7664246322204</v>
       </c>
       <c r="L24" t="n">
         <v>1189.663494389109</v>
       </c>
       <c r="M24" t="n">
-        <v>1509.99881391881</v>
+        <v>1509.998813918811</v>
       </c>
       <c r="N24" t="n">
-        <v>1854.519469556428</v>
+        <v>1854.519469556429</v>
       </c>
       <c r="O24" t="n">
         <v>2103.272883640391</v>
@@ -6121,19 +6121,19 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>659.4602391108339</v>
+        <v>659.4602391108328</v>
       </c>
       <c r="C25" t="n">
-        <v>559.3441472229671</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D25" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E25" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F25" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G25" t="n">
         <v>221.5295092103129</v>
@@ -6148,10 +6148,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K25" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254957</v>
       </c>
       <c r="L25" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M25" t="n">
         <v>1048.866260860496</v>
@@ -6160,37 +6160,37 @@
         <v>1386.860941116388</v>
       </c>
       <c r="O25" t="n">
-        <v>1688.18649035013</v>
+        <v>1688.186490350129</v>
       </c>
       <c r="P25" t="n">
-        <v>1932.236826184157</v>
+        <v>1932.236826184156</v>
       </c>
       <c r="Q25" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R25" t="n">
         <v>1996.265827986523</v>
       </c>
       <c r="S25" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T25" t="n">
-        <v>1710.200584771664</v>
+        <v>1710.200584771663</v>
       </c>
       <c r="U25" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V25" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W25" t="n">
-        <v>1083.430560862498</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X25" t="n">
-        <v>924.2611010045215</v>
+        <v>924.2611010045205</v>
       </c>
       <c r="Y25" t="n">
-        <v>772.2886129010325</v>
+        <v>772.2886129010315</v>
       </c>
     </row>
     <row r="26">
@@ -6215,10 +6215,10 @@
         <v>904.319011615589</v>
       </c>
       <c r="G26" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H26" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I26" t="n">
         <v>97.21709146028562</v>
@@ -6236,7 +6236,7 @@
         <v>2388.164701515097</v>
       </c>
       <c r="N26" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O26" t="n">
         <v>3889.732883643323</v>
@@ -6245,7 +6245,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q26" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R26" t="n">
         <v>4860.854573014292</v>
@@ -6303,25 +6303,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J27" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K27" t="n">
-        <v>246.2867756623457</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L27" t="n">
-        <v>860.1838454192343</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M27" t="n">
-        <v>1214.889396603097</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N27" t="n">
-        <v>1559.410052240715</v>
+        <v>1953.181607381369</v>
       </c>
       <c r="O27" t="n">
-        <v>1808.163466324677</v>
+        <v>2440.930027762787</v>
       </c>
       <c r="P27" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q27" t="n">
         <v>2623.573505376138</v>
@@ -6358,16 +6358,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>659.4602391108334</v>
+        <v>659.4602391108331</v>
       </c>
       <c r="C28" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229672</v>
       </c>
       <c r="D28" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506725</v>
       </c>
       <c r="E28" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F28" t="n">
         <v>320.8847398504512</v>
@@ -6382,10 +6382,10 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J28" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K28" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L28" t="n">
         <v>709.8489468649691</v>
@@ -6418,16 +6418,16 @@
         <v>1489.892037025262</v>
       </c>
       <c r="V28" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W28" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X28" t="n">
-        <v>924.261101004521</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y28" t="n">
-        <v>772.288612901032</v>
+        <v>772.2886129010317</v>
       </c>
     </row>
     <row r="29">
@@ -6452,28 +6452,28 @@
         <v>904.319011615589</v>
       </c>
       <c r="G29" t="n">
-        <v>488.1932370805466</v>
+        <v>488.1932370805465</v>
       </c>
       <c r="H29" t="n">
-        <v>179.822278382246</v>
+        <v>179.8222783822458</v>
       </c>
       <c r="I29" t="n">
         <v>97.21709146028562</v>
       </c>
       <c r="J29" t="n">
-        <v>365.8813331823783</v>
+        <v>365.8813331823789</v>
       </c>
       <c r="K29" t="n">
-        <v>889.2841917514079</v>
+        <v>889.2841917514085</v>
       </c>
       <c r="L29" t="n">
-        <v>1590.888347795206</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M29" t="n">
         <v>2388.164701515097</v>
       </c>
       <c r="N29" t="n">
-        <v>3183.709822619127</v>
+        <v>3183.709822619128</v>
       </c>
       <c r="O29" t="n">
         <v>3889.732883643323</v>
@@ -6549,13 +6549,13 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M30" t="n">
-        <v>1847.655958041207</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N30" t="n">
-        <v>2192.176613678825</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O30" t="n">
-        <v>2440.930027762787</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P30" t="n">
         <v>2623.573505376138</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>659.4602391108328</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C31" t="n">
-        <v>559.3441472229671</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D31" t="n">
-        <v>478.0475988506724</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E31" t="n">
-        <v>398.9545963083204</v>
+        <v>398.9545963083206</v>
       </c>
       <c r="F31" t="n">
-        <v>320.8847398504512</v>
+        <v>320.8847398504513</v>
       </c>
       <c r="G31" t="n">
-        <v>221.5295092103129</v>
+        <v>221.529509210313</v>
       </c>
       <c r="H31" t="n">
         <v>139.9315917982973</v>
@@ -6619,13 +6619,13 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J31" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K31" t="n">
-        <v>394.6863306254958</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L31" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M31" t="n">
         <v>1048.866260860496</v>
@@ -6640,7 +6640,7 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q31" t="n">
-        <v>2038.520840384657</v>
+        <v>2038.520840384656</v>
       </c>
       <c r="R31" t="n">
         <v>1996.265827986523</v>
@@ -6661,10 +6661,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X31" t="n">
-        <v>924.2611010045205</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y31" t="n">
-        <v>772.2886129010315</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
     <row r="32">
@@ -6680,28 +6680,28 @@
         <v>2059.358867610191</v>
       </c>
       <c r="D32" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.09316900344</v>
       </c>
       <c r="E32" t="n">
-        <v>1315.304916405197</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F32" t="n">
-        <v>904.319011615589</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G32" t="n">
-        <v>488.1932370805465</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H32" t="n">
-        <v>179.8222783822458</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I32" t="n">
-        <v>97.21709146028562</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J32" t="n">
-        <v>365.8813331823785</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K32" t="n">
-        <v>889.2841917514082</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L32" t="n">
         <v>1590.888347795206</v>
@@ -6719,7 +6719,7 @@
         <v>4454.632848899127</v>
       </c>
       <c r="Q32" t="n">
-        <v>4801.627437207829</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R32" t="n">
         <v>4860.854573014292</v>
@@ -6780,22 +6780,22 @@
         <v>263.5382936126482</v>
       </c>
       <c r="K33" t="n">
-        <v>263.5382936126482</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L33" t="n">
-        <v>263.5382936126482</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M33" t="n">
-        <v>1031.90644000511</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N33" t="n">
-        <v>1376.427095642728</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O33" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P33" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q33" t="n">
         <v>2623.573505376138</v>
@@ -6832,37 +6832,37 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>659.4602391108331</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C34" t="n">
-        <v>559.3441472229672</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D34" t="n">
-        <v>478.0475988506726</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E34" t="n">
-        <v>398.9545963083206</v>
+        <v>398.9545963083203</v>
       </c>
       <c r="F34" t="n">
-        <v>320.8847398504513</v>
+        <v>320.884739850451</v>
       </c>
       <c r="G34" t="n">
-        <v>221.5295092103128</v>
+        <v>221.5295092103127</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9315917982972</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I34" t="n">
-        <v>97.21709146028584</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J34" t="n">
-        <v>177.0503551525399</v>
+        <v>177.05035515254</v>
       </c>
       <c r="K34" t="n">
-        <v>394.6863306254956</v>
+        <v>394.6863306254955</v>
       </c>
       <c r="L34" t="n">
-        <v>709.8489468649691</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M34" t="n">
         <v>1048.866260860496</v>
@@ -6889,19 +6889,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U34" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V34" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W34" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X34" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y34" t="n">
-        <v>772.2886129010317</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>2428.321384550603</v>
       </c>
       <c r="C35" t="n">
-        <v>2059.358867610191</v>
+        <v>2059.358867610192</v>
       </c>
       <c r="D35" t="n">
-        <v>1701.093169003441</v>
+        <v>1701.093169003442</v>
       </c>
       <c r="E35" t="n">
-        <v>1315.304916405196</v>
+        <v>1315.304916405198</v>
       </c>
       <c r="F35" t="n">
-        <v>904.3190116155888</v>
+        <v>904.3190116155899</v>
       </c>
       <c r="G35" t="n">
-        <v>488.193237080547</v>
+        <v>488.1932370805469</v>
       </c>
       <c r="H35" t="n">
-        <v>179.8222783822462</v>
+        <v>179.8222783822463</v>
       </c>
       <c r="I35" t="n">
         <v>97.21709146028587</v>
@@ -6938,10 +6938,10 @@
         <v>365.8813331823794</v>
       </c>
       <c r="K35" t="n">
-        <v>889.2841917514093</v>
+        <v>889.2841917514091</v>
       </c>
       <c r="L35" t="n">
-        <v>1590.888347795208</v>
+        <v>1590.888347795207</v>
       </c>
       <c r="M35" t="n">
         <v>2388.164701515098</v>
@@ -6950,7 +6950,7 @@
         <v>3183.709822619129</v>
       </c>
       <c r="O35" t="n">
-        <v>3889.732883643325</v>
+        <v>3889.732883643324</v>
       </c>
       <c r="P35" t="n">
         <v>4454.632848899128</v>
@@ -7023,10 +7023,10 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M36" t="n">
-        <v>2056.693778606511</v>
+        <v>1608.660951743751</v>
       </c>
       <c r="N36" t="n">
-        <v>2623.573505376138</v>
+        <v>2374.820091292176</v>
       </c>
       <c r="O36" t="n">
         <v>2623.573505376138</v>
@@ -7069,31 +7069,31 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>659.4602391108333</v>
+        <v>659.460239110833</v>
       </c>
       <c r="C37" t="n">
-        <v>559.3441472229674</v>
+        <v>559.3441472229671</v>
       </c>
       <c r="D37" t="n">
-        <v>478.0475988506728</v>
+        <v>478.0475988506724</v>
       </c>
       <c r="E37" t="n">
-        <v>398.9545963083207</v>
+        <v>398.9545963083204</v>
       </c>
       <c r="F37" t="n">
-        <v>320.8847398504514</v>
+        <v>320.8847398504511</v>
       </c>
       <c r="G37" t="n">
-        <v>221.529509210313</v>
+        <v>221.5295092103128</v>
       </c>
       <c r="H37" t="n">
-        <v>139.9315917982973</v>
+        <v>139.9315917982971</v>
       </c>
       <c r="I37" t="n">
         <v>97.21709146028587</v>
       </c>
       <c r="J37" t="n">
-        <v>177.05035515254</v>
+        <v>177.0503551525401</v>
       </c>
       <c r="K37" t="n">
         <v>394.6863306254958</v>
@@ -7114,10 +7114,10 @@
         <v>1932.236826184156</v>
       </c>
       <c r="Q37" t="n">
-        <v>2038.520840384656</v>
+        <v>2038.520840384657</v>
       </c>
       <c r="R37" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S37" t="n">
         <v>1865.165908942116</v>
@@ -7126,19 +7126,19 @@
         <v>1710.200584771663</v>
       </c>
       <c r="U37" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V37" t="n">
-        <v>1304.027639859417</v>
+        <v>1304.027639859416</v>
       </c>
       <c r="W37" t="n">
         <v>1083.430560862497</v>
       </c>
       <c r="X37" t="n">
-        <v>924.2611010045209</v>
+        <v>924.2611010045207</v>
       </c>
       <c r="Y37" t="n">
-        <v>772.2886129010318</v>
+        <v>772.2886129010316</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2428.321384550603</v>
+        <v>2428.321384550602</v>
       </c>
       <c r="C38" t="n">
-        <v>2059.358867610192</v>
+        <v>2059.358867610191</v>
       </c>
       <c r="D38" t="n">
-        <v>1701.093169003442</v>
+        <v>1701.093169003441</v>
       </c>
       <c r="E38" t="n">
-        <v>1315.304916405198</v>
+        <v>1315.304916405196</v>
       </c>
       <c r="F38" t="n">
-        <v>904.3190116155899</v>
+        <v>904.3190116155888</v>
       </c>
       <c r="G38" t="n">
-        <v>488.1932370805469</v>
+        <v>488.193237080547</v>
       </c>
       <c r="H38" t="n">
-        <v>179.8222783822463</v>
+        <v>179.8222783822462</v>
       </c>
       <c r="I38" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J38" t="n">
-        <v>365.8813331823794</v>
+        <v>365.8813331823787</v>
       </c>
       <c r="K38" t="n">
-        <v>889.2841917514091</v>
+        <v>889.2841917514083</v>
       </c>
       <c r="L38" t="n">
-        <v>1590.888347795207</v>
+        <v>1590.888347795206</v>
       </c>
       <c r="M38" t="n">
-        <v>2388.164701515098</v>
+        <v>2388.164701515097</v>
       </c>
       <c r="N38" t="n">
-        <v>3183.709822619129</v>
+        <v>3183.709822619127</v>
       </c>
       <c r="O38" t="n">
-        <v>3889.732883643324</v>
+        <v>3889.732883643323</v>
       </c>
       <c r="P38" t="n">
-        <v>4454.632848899128</v>
+        <v>4454.632848899127</v>
       </c>
       <c r="Q38" t="n">
-        <v>4801.627437207831</v>
+        <v>4801.62743720783</v>
       </c>
       <c r="R38" t="n">
-        <v>4860.854573014293</v>
+        <v>4860.854573014292</v>
       </c>
       <c r="S38" t="n">
-        <v>4726.561275231265</v>
+        <v>4726.561275231264</v>
       </c>
       <c r="T38" t="n">
         <v>4515.972600141868</v>
       </c>
       <c r="U38" t="n">
-        <v>4262.357857465302</v>
+        <v>4262.357857465301</v>
       </c>
       <c r="V38" t="n">
-        <v>3931.294970121731</v>
+        <v>3931.29497012173</v>
       </c>
       <c r="W38" t="n">
-        <v>3578.526314851617</v>
+        <v>3578.526314851616</v>
       </c>
       <c r="X38" t="n">
-        <v>3205.060556590537</v>
+        <v>3205.060556590536</v>
       </c>
       <c r="Y38" t="n">
-        <v>2814.921224614725</v>
+        <v>2814.921224614724</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>125.4002551675025</v>
       </c>
       <c r="I39" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028584</v>
       </c>
       <c r="J39" t="n">
         <v>263.5382936126482</v>
@@ -7260,7 +7260,7 @@
         <v>1288.32563221405</v>
       </c>
       <c r="M39" t="n">
-        <v>1819.161927111988</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N39" t="n">
         <v>2623.573505376138</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>659.4602391108324</v>
+        <v>659.4602391108326</v>
       </c>
       <c r="C40" t="n">
-        <v>559.3441472229665</v>
+        <v>559.3441472229667</v>
       </c>
       <c r="D40" t="n">
-        <v>478.0475988506719</v>
+        <v>478.0475988506721</v>
       </c>
       <c r="E40" t="n">
         <v>398.9545963083199</v>
       </c>
       <c r="F40" t="n">
-        <v>320.8847398504506</v>
+        <v>320.8847398504512</v>
       </c>
       <c r="G40" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103129</v>
       </c>
       <c r="H40" t="n">
-        <v>139.9315917982966</v>
+        <v>139.9315917982973</v>
       </c>
       <c r="I40" t="n">
-        <v>97.21709146028587</v>
+        <v>97.21709146028586</v>
       </c>
       <c r="J40" t="n">
-        <v>177.0503551525401</v>
+        <v>177.0503551525399</v>
       </c>
       <c r="K40" t="n">
-        <v>394.6863306254959</v>
+        <v>394.6863306254956</v>
       </c>
       <c r="L40" t="n">
-        <v>709.8489468649693</v>
+        <v>709.8489468649691</v>
       </c>
       <c r="M40" t="n">
         <v>1048.866260860496</v>
@@ -7369,13 +7369,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W40" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X40" t="n">
-        <v>924.26110100452</v>
+        <v>924.2611010045202</v>
       </c>
       <c r="Y40" t="n">
-        <v>772.288612901031</v>
+        <v>772.2886129010312</v>
       </c>
     </row>
     <row r="41">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>659.4602391108319</v>
+        <v>659.4602391108327</v>
       </c>
       <c r="C43" t="n">
-        <v>559.3441472229661</v>
+        <v>559.344147222967</v>
       </c>
       <c r="D43" t="n">
-        <v>478.0475988506714</v>
+        <v>478.0475988506723</v>
       </c>
       <c r="E43" t="n">
-        <v>398.9545963083197</v>
+        <v>398.9545963083202</v>
       </c>
       <c r="F43" t="n">
-        <v>320.8847398504505</v>
+        <v>320.8847398504507</v>
       </c>
       <c r="G43" t="n">
-        <v>221.5295092103122</v>
+        <v>221.5295092103124</v>
       </c>
       <c r="H43" t="n">
         <v>139.9315917982973</v>
@@ -7570,10 +7570,10 @@
         <v>177.05035515254</v>
       </c>
       <c r="K43" t="n">
-        <v>394.6863306254957</v>
+        <v>394.6863306254958</v>
       </c>
       <c r="L43" t="n">
-        <v>709.8489468649692</v>
+        <v>709.8489468649689</v>
       </c>
       <c r="M43" t="n">
         <v>1048.866260860496</v>
@@ -7591,7 +7591,7 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R43" t="n">
-        <v>1996.265827986523</v>
+        <v>1996.265827986522</v>
       </c>
       <c r="S43" t="n">
         <v>1865.165908942116</v>
@@ -7606,13 +7606,13 @@
         <v>1304.027639859416</v>
       </c>
       <c r="W43" t="n">
-        <v>1083.430560862496</v>
+        <v>1083.430560862497</v>
       </c>
       <c r="X43" t="n">
-        <v>924.2611010045197</v>
+        <v>924.2611010045204</v>
       </c>
       <c r="Y43" t="n">
-        <v>772.2886129010305</v>
+        <v>772.2886129010313</v>
       </c>
     </row>
     <row r="44">
@@ -7725,25 +7725,25 @@
         <v>97.21709146028584</v>
       </c>
       <c r="J45" t="n">
-        <v>97.21709146028584</v>
+        <v>263.5382936126482</v>
       </c>
       <c r="K45" t="n">
-        <v>97.21709146028584</v>
+        <v>674.4285624571609</v>
       </c>
       <c r="L45" t="n">
-        <v>97.21709146028584</v>
+        <v>1288.32563221405</v>
       </c>
       <c r="M45" t="n">
-        <v>334.2881267578673</v>
+        <v>2056.693778606511</v>
       </c>
       <c r="N45" t="n">
-        <v>1138.699705022018</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="O45" t="n">
-        <v>1808.163466324677</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="P45" t="n">
-        <v>2328.464088060424</v>
+        <v>2623.573505376138</v>
       </c>
       <c r="Q45" t="n">
         <v>2623.573505376138</v>
@@ -7780,19 +7780,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>659.4602391108335</v>
+        <v>659.4602391108332</v>
       </c>
       <c r="C46" t="n">
-        <v>559.3441472229676</v>
+        <v>559.3441472229673</v>
       </c>
       <c r="D46" t="n">
-        <v>478.047598850673</v>
+        <v>478.0475988506727</v>
       </c>
       <c r="E46" t="n">
-        <v>398.954596308321</v>
+        <v>398.9545963083207</v>
       </c>
       <c r="F46" t="n">
-        <v>320.8847398504518</v>
+        <v>320.8847398504514</v>
       </c>
       <c r="G46" t="n">
         <v>221.5295092103129</v>
@@ -7828,16 +7828,16 @@
         <v>2038.520840384656</v>
       </c>
       <c r="R46" t="n">
-        <v>1996.265827986522</v>
+        <v>1996.265827986523</v>
       </c>
       <c r="S46" t="n">
-        <v>1865.165908942117</v>
+        <v>1865.165908942116</v>
       </c>
       <c r="T46" t="n">
         <v>1710.200584771663</v>
       </c>
       <c r="U46" t="n">
-        <v>1489.892037025263</v>
+        <v>1489.892037025262</v>
       </c>
       <c r="V46" t="n">
         <v>1304.027639859417</v>
@@ -7846,10 +7846,10 @@
         <v>1083.430560862497</v>
       </c>
       <c r="X46" t="n">
-        <v>924.2611010045212</v>
+        <v>924.2611010045209</v>
       </c>
       <c r="Y46" t="n">
-        <v>772.2886129010321</v>
+        <v>772.2886129010318</v>
       </c>
     </row>
   </sheetData>
@@ -8310,7 +8310,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P6" t="n">
-        <v>199.0269485415596</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
@@ -8529,7 +8529,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>50.07369958270193</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
         <v>264.4652370125786</v>
@@ -8550,7 +8550,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>194.3570488013773</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8787,7 +8787,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>45.52166981132082</v>
@@ -9024,7 +9024,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q15" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>45.52166981132082</v>
@@ -9261,7 +9261,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9422,7 +9422,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298295</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9954,7 +9954,7 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9972,7 +9972,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q27" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10206,7 +10206,7 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -10428,10 +10428,10 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
         <v>465.7050637499999</v>
@@ -10443,10 +10443,10 @@
         <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10677,7 +10677,7 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
-        <v>142.5962444444444</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -11081,7 +11081,7 @@
         <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>65.716419872982</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11376,25 +11376,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>381.5997261417975</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N45" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
-        <v>393.8623192767295</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P45" t="n">
-        <v>318.4627686399372</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -22556,7 +22556,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22604,16 +22604,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>83.45484387820841</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>129.2703517762111</v>
       </c>
     </row>
     <row r="3">
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.0484231972504</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>128.2048544561491</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -22747,22 +22747,22 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R4" t="n">
-        <v>146.6651919801578</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>212.1455389500189</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>138.9222730026343</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -23419,16 +23419,16 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>38.66073503799508</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -23470,19 +23470,19 @@
         <v>221.5475610583892</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2373523985773</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>36.7648706043654</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23650,13 +23650,13 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
@@ -23668,10 +23668,10 @@
         <v>166.4935684633776</v>
       </c>
       <c r="H16" t="n">
-        <v>46.08940907529335</v>
+        <v>148.9138283675361</v>
       </c>
       <c r="I16" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23710,16 +23710,16 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>68.39414327044688</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>63.27145273310828</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>110.419245464272</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>109.9643524037928</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>197.9208099836032</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,16 +23947,16 @@
         <v>286.2373523985773</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>211.7114879832365</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24124,10 +24124,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>72.44697612046899</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -24136,10 +24136,10 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>166.4935684633776</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
@@ -24172,28 +24172,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>109.9643524037928</v>
       </c>
       <c r="S22" t="n">
         <v>197.9208099836032</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>221.5475610583892</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>286.2373523985773</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>40.55016599929988</v>
       </c>
     </row>
     <row r="23">
@@ -24364,7 +24364,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>-9.663381206337363e-13</v>
+        <v>0</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -24610,7 +24610,7 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24886,7 +24886,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>8.242295734817162e-13</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1329498.80310821</v>
+        <v>1329498.803108211</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1329498.80310821</v>
+        <v>1329498.803108211</v>
       </c>
     </row>
     <row r="8">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>36783.8486956404</v>
+        <v>36783.84869564044</v>
       </c>
       <c r="C2" t="n">
         <v>41052.08849321416</v>
       </c>
       <c r="D2" t="n">
-        <v>41052.08849321415</v>
+        <v>41052.08849321416</v>
       </c>
       <c r="E2" t="n">
-        <v>39102.90597377086</v>
+        <v>39102.90597377088</v>
       </c>
       <c r="F2" t="n">
         <v>39102.90597377087</v>
       </c>
       <c r="G2" t="n">
-        <v>39102.90597377089</v>
+        <v>39102.90597377086</v>
       </c>
       <c r="H2" t="n">
-        <v>39102.90597377088</v>
+        <v>39102.90597377085</v>
       </c>
       <c r="I2" t="n">
         <v>41052.08849321425</v>
       </c>
       <c r="J2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="K2" t="n">
+        <v>41052.08849321425</v>
+      </c>
+      <c r="L2" t="n">
+        <v>41052.08849321417</v>
+      </c>
+      <c r="M2" t="n">
+        <v>41052.08849321422</v>
+      </c>
+      <c r="N2" t="n">
+        <v>41052.08849321419</v>
+      </c>
+      <c r="O2" t="n">
         <v>41052.08849321424</v>
       </c>
-      <c r="K2" t="n">
-        <v>41052.08849321424</v>
-      </c>
-      <c r="L2" t="n">
-        <v>41052.0884932142</v>
-      </c>
-      <c r="M2" t="n">
-        <v>41052.08849321419</v>
-      </c>
-      <c r="N2" t="n">
-        <v>41052.08849321424</v>
-      </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>41052.08849321423</v>
-      </c>
-      <c r="P2" t="n">
-        <v>41052.08849321421</v>
       </c>
     </row>
     <row r="3">
@@ -26381,10 +26381,10 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="J3" t="n">
         <v>176423.219192593</v>
@@ -26399,7 +26399,7 @@
         <v>134801.0152338372</v>
       </c>
       <c r="N3" t="n">
-        <v>54505.5121037125</v>
+        <v>54505.51210371251</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90335.72423892125</v>
+        <v>90335.72423892134</v>
       </c>
       <c r="C4" t="n">
         <v>139059.1391806191</v>
@@ -26424,40 +26424,40 @@
         <v>139059.1391806191</v>
       </c>
       <c r="E4" t="n">
-        <v>787.7936905758693</v>
+        <v>787.7936905758927</v>
       </c>
       <c r="F4" t="n">
-        <v>787.7936905759088</v>
+        <v>787.7936905759511</v>
       </c>
       <c r="G4" t="n">
         <v>787.7936905758694</v>
       </c>
       <c r="H4" t="n">
-        <v>787.7936905758902</v>
+        <v>787.7936905758694</v>
       </c>
       <c r="I4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="J4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="K4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="L4" t="n">
-        <v>23206.58093189635</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="M4" t="n">
-        <v>23206.58093189631</v>
+        <v>23206.58093189634</v>
       </c>
       <c r="N4" t="n">
         <v>23206.58093189634</v>
       </c>
       <c r="O4" t="n">
-        <v>23206.58093189634</v>
+        <v>23206.58093189636</v>
       </c>
       <c r="P4" t="n">
-        <v>23206.58093189636</v>
+        <v>23206.58093189635</v>
       </c>
     </row>
     <row r="5">
@@ -26476,7 +26476,7 @@
         <v>82859.07806340946</v>
       </c>
       <c r="E5" t="n">
-        <v>91987.32594871662</v>
+        <v>91987.32594871664</v>
       </c>
       <c r="F5" t="n">
         <v>91987.32594871662</v>
@@ -26485,16 +26485,16 @@
         <v>91987.32594871662</v>
       </c>
       <c r="H5" t="n">
-        <v>91987.32594871664</v>
+        <v>91987.32594871662</v>
       </c>
       <c r="I5" t="n">
         <v>97715.10582002539</v>
       </c>
       <c r="J5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="K5" t="n">
-        <v>97715.10582002539</v>
+        <v>97715.10582002538</v>
       </c>
       <c r="L5" t="n">
         <v>97715.10582002539</v>
@@ -26503,7 +26503,7 @@
         <v>97715.1058200254</v>
       </c>
       <c r="N5" t="n">
-        <v>97715.1058200254</v>
+        <v>97715.10582002539</v>
       </c>
       <c r="O5" t="n">
         <v>97715.10582002539</v>
@@ -26519,7 +26519,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-726378.8328212347</v>
+        <v>-726592.2448111135</v>
       </c>
       <c r="C6" t="n">
         <v>-180866.1287508144</v>
@@ -26528,40 +26528,40 @@
         <v>-180866.1287508144</v>
       </c>
       <c r="E6" t="n">
-        <v>-578832.2501424177</v>
+        <v>-578929.7092683899</v>
       </c>
       <c r="F6" t="n">
-        <v>-53672.21366552166</v>
+        <v>-53769.67279149386</v>
       </c>
       <c r="G6" t="n">
-        <v>-53672.2136655216</v>
+        <v>-53769.67279149379</v>
       </c>
       <c r="H6" t="n">
-        <v>-53672.21366552169</v>
+        <v>-53769.6727914938</v>
       </c>
       <c r="I6" t="n">
         <v>-134375.11036242</v>
       </c>
       <c r="J6" t="n">
-        <v>-256292.8174513004</v>
+        <v>-256292.8174513005</v>
       </c>
       <c r="K6" t="n">
-        <v>-79869.59825870751</v>
+        <v>-79869.59825870747</v>
       </c>
       <c r="L6" t="n">
-        <v>-79869.59825870754</v>
+        <v>-79869.59825870756</v>
       </c>
       <c r="M6" t="n">
         <v>-214670.6134925447</v>
       </c>
       <c r="N6" t="n">
-        <v>-134375.11036242</v>
+        <v>-134375.1103624201</v>
       </c>
       <c r="O6" t="n">
-        <v>-79869.5982587075</v>
+        <v>-79869.59825870751</v>
       </c>
       <c r="P6" t="n">
-        <v>-79869.59825870753</v>
+        <v>-79869.59825870751</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="J2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="K2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="L2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="M2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="N2" t="n">
+        <v>68.13189012964064</v>
+      </c>
+      <c r="O2" t="n">
         <v>68.13189012964068</v>
       </c>
-      <c r="J2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="K2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="L2" t="n">
-        <v>68.13189012964068</v>
-      </c>
-      <c r="M2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="N2" t="n">
-        <v>68.13189012964062</v>
-      </c>
-      <c r="O2" t="n">
-        <v>68.13189012964064</v>
-      </c>
       <c r="P2" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
     <row r="3">
@@ -26741,13 +26741,13 @@
         <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
-        <v>377.7436642170866</v>
+        <v>377.7436642170867</v>
       </c>
       <c r="E3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="F3" t="n">
-        <v>830.3824054541002</v>
+        <v>830.3824054541001</v>
       </c>
       <c r="G3" t="n">
         <v>830.3824054541002</v>
@@ -26756,16 +26756,16 @@
         <v>830.3824054541002</v>
       </c>
       <c r="I3" t="n">
-        <v>830.3824054541005</v>
+        <v>830.3824054541003</v>
       </c>
       <c r="J3" t="n">
         <v>830.3824054541002</v>
       </c>
       <c r="K3" t="n">
+        <v>830.3824054541002</v>
+      </c>
+      <c r="L3" t="n">
         <v>830.3824054541003</v>
-      </c>
-      <c r="L3" t="n">
-        <v>830.3824054541002</v>
       </c>
       <c r="M3" t="n">
         <v>830.3824054541003</v>
@@ -26923,10 +26923,10 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -26941,7 +26941,7 @@
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27160,10 +27160,10 @@
         <v>0</v>
       </c>
       <c r="M2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -27376,28 +27376,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,7 +27424,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.4784025748117</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27436,16 +27436,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>234.638499496613</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>256.9675868798425</v>
       </c>
     </row>
     <row r="3">
@@ -27537,19 +27537,19 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>38.567049820962</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>167.3098022590509</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -27582,16 +27582,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S4" t="n">
-        <v>212.1455389500189</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27619,19 +27619,19 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>323.9227727643571</v>
+        <v>168.8145221870031</v>
       </c>
       <c r="I5" t="n">
         <v>151.9313162448613</v>
@@ -27661,19 +27661,19 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481171</v>
+        <v>54.47840257481172</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
-        <v>1.512645914440213</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,31 +27771,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>167.3098022590509</v>
+        <v>12.09831362247004</v>
       </c>
       <c r="H7" t="n">
         <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923382</v>
+        <v>134.9656217923383</v>
       </c>
       <c r="J7" t="n">
-        <v>45.199959188537</v>
+        <v>45.19995918853701</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27816,7 +27816,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>29.12274995491431</v>
       </c>
       <c r="R7" t="n">
         <v>146.6651919801579</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>80.22647697792388</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>134.5799759891763</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I8" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>174.4157128089715</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>181.3254480082696</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>94.27291016315894</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>3.448950818139821</v>
       </c>
       <c r="H10" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>134.9656217923382</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28053,16 +28053,16 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R10" t="n">
-        <v>146.6651919801579</v>
+        <v>146.6651919801578</v>
       </c>
       <c r="S10" t="n">
         <v>212.1455389500189</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U10" t="n">
         <v>286.2818742419777</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28333,7 +28333,7 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>8.682195192673604e-13</v>
+        <v>0</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.800799509510398e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y25" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="26">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y28" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="29">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y31" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="32">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y34" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y37" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="C40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="D40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="E40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="F40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="G40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="H40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="I40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="J40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="K40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="L40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="M40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="N40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="O40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="P40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Q40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="R40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="S40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="T40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="U40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="V40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="W40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="X40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
       <c r="Y40" t="n">
-        <v>68.13189012964062</v>
+        <v>68.13189012964064</v>
       </c>
     </row>
     <row r="41">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="C43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="D43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="E43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="F43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="G43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="H43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="I43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="J43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="K43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="L43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="M43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="N43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="O43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="P43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Q43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="R43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="S43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="T43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="U43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="V43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="W43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="X43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
       <c r="Y43" t="n">
-        <v>68.13189012964064</v>
+        <v>68.13189012964068</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="C46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="D46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="E46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="F46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="G46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="H46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="I46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="J46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="K46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="L46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="M46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="N46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="O46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="P46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Q46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="R46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="S46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="T46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="U46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="V46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="W46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="X46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
       <c r="Y46" t="n">
-        <v>68.13189012964068</v>
+        <v>68.13189012964067</v>
       </c>
     </row>
   </sheetData>
@@ -31130,13 +31130,13 @@
         <v>76.76392708396477</v>
       </c>
       <c r="K3" t="n">
-        <v>11.76595806653236</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L3" t="n">
         <v>176.4169820478007</v>
       </c>
       <c r="M3" t="n">
-        <v>205.8702969983122</v>
+        <v>86.4344768999344</v>
       </c>
       <c r="N3" t="n">
         <v>211.31907117367</v>
@@ -31276,13 +31276,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340046</v>
+        <v>1.518567494340045</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935141</v>
+        <v>15.55202935140999</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554465</v>
       </c>
       <c r="J5" t="n">
         <v>128.8865178727436</v>
@@ -31300,22 +31300,22 @@
         <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119866</v>
+        <v>255.8615389119865</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954667</v>
+        <v>218.3719038954666</v>
       </c>
       <c r="Q5" t="n">
         <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633796</v>
       </c>
       <c r="S5" t="n">
         <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473552</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,16 +31355,16 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141107</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188913</v>
       </c>
       <c r="I6" t="n">
         <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396475</v>
       </c>
       <c r="K6" t="n">
         <v>131.2017781649102</v>
@@ -31376,7 +31376,7 @@
         <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.31907117367</v>
+        <v>91.88325107529209</v>
       </c>
       <c r="O6" t="n">
         <v>193.3156655923047</v>
@@ -31388,16 +31388,16 @@
         <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034981</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131473</v>
+        <v>15.09192847131472</v>
       </c>
       <c r="T6" t="n">
         <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619152</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,19 +31434,19 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.681177099407861</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644441</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492005</v>
+        <v>20.48485313492004</v>
       </c>
       <c r="J7" t="n">
         <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302239</v>
+        <v>79.14039391302238</v>
       </c>
       <c r="L7" t="n">
         <v>101.2724571246924</v>
@@ -31458,13 +31458,13 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175842</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383801</v>
+        <v>82.38527391383799</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678007</v>
       </c>
       <c r="R7" t="n">
         <v>30.62819939701163</v>
@@ -31473,7 +31473,7 @@
         <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197224</v>
+        <v>2.910483970197223</v>
       </c>
       <c r="U7" t="n">
         <v>0.0371551145131561</v>
@@ -31519,19 +31519,19 @@
         <v>15.55202935141</v>
       </c>
       <c r="I8" t="n">
-        <v>58.54457332554467</v>
+        <v>58.54457332554468</v>
       </c>
       <c r="J8" t="n">
         <v>128.8865178727436</v>
       </c>
       <c r="K8" t="n">
-        <v>193.1674799081577</v>
+        <v>193.1674799081578</v>
       </c>
       <c r="L8" t="n">
-        <v>239.6413398630669</v>
+        <v>239.641339863067</v>
       </c>
       <c r="M8" t="n">
-        <v>266.6471645405367</v>
+        <v>266.6471645405368</v>
       </c>
       <c r="N8" t="n">
         <v>270.9617944338304</v>
@@ -31546,13 +31546,13 @@
         <v>163.9882055044137</v>
       </c>
       <c r="R8" t="n">
-        <v>95.39071536633797</v>
+        <v>95.39071536633799</v>
       </c>
       <c r="S8" t="n">
-        <v>34.60435677727382</v>
+        <v>34.60435677727383</v>
       </c>
       <c r="T8" t="n">
-        <v>6.647529206473553</v>
+        <v>6.647529206473554</v>
       </c>
       <c r="U8" t="n">
         <v>0.1214853995472036</v>
@@ -31592,22 +31592,22 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.812505240014111</v>
+        <v>0.8125052400141111</v>
       </c>
       <c r="H9" t="n">
-        <v>7.847090081188914</v>
+        <v>7.847090081188916</v>
       </c>
       <c r="I9" t="n">
-        <v>27.97441286890689</v>
+        <v>27.9744128689069</v>
       </c>
       <c r="J9" t="n">
-        <v>76.76392708396476</v>
+        <v>76.76392708396477</v>
       </c>
       <c r="K9" t="n">
         <v>131.2017781649102</v>
       </c>
       <c r="L9" t="n">
-        <v>132.9984977071305</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M9" t="n">
         <v>205.8702969983122</v>
@@ -31619,22 +31619,22 @@
         <v>193.3156655923047</v>
       </c>
       <c r="P9" t="n">
-        <v>155.1528646479577</v>
+        <v>155.1528646479578</v>
       </c>
       <c r="Q9" t="n">
-        <v>103.7155811639065</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>50.44659727034982</v>
+        <v>50.44659727034983</v>
       </c>
       <c r="S9" t="n">
         <v>15.09192847131473</v>
       </c>
       <c r="T9" t="n">
-        <v>3.274966296372665</v>
+        <v>3.274966296372666</v>
       </c>
       <c r="U9" t="n">
-        <v>0.05345429210619153</v>
+        <v>0.05345429210619154</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,16 +31671,16 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.6811770994078611</v>
+        <v>0.6811770994078612</v>
       </c>
       <c r="H10" t="n">
-        <v>6.056283665644442</v>
+        <v>6.056283665644443</v>
       </c>
       <c r="I10" t="n">
         <v>20.48485313492005</v>
       </c>
       <c r="J10" t="n">
-        <v>48.15922092813577</v>
+        <v>48.15922092813578</v>
       </c>
       <c r="K10" t="n">
         <v>79.14039391302239</v>
@@ -31695,16 +31695,16 @@
         <v>104.2386737666594</v>
       </c>
       <c r="O10" t="n">
-        <v>96.28128674175844</v>
+        <v>96.28128674175845</v>
       </c>
       <c r="P10" t="n">
         <v>82.38527391383801</v>
       </c>
       <c r="Q10" t="n">
-        <v>57.03929329678008</v>
+        <v>57.03929329678009</v>
       </c>
       <c r="R10" t="n">
-        <v>30.62819939701163</v>
+        <v>30.62819939701164</v>
       </c>
       <c r="S10" t="n">
         <v>11.87105908695336</v>
@@ -31750,16 +31750,16 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H11" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I11" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J11" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K11" t="n">
         <v>424.6341946041488</v>
@@ -31768,7 +31768,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M11" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N11" t="n">
         <v>595.6470695927186</v>
@@ -31777,7 +31777,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P11" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q11" t="n">
         <v>360.4902833647496</v>
@@ -31786,7 +31786,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S11" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T11" t="n">
         <v>14.61306122562944</v>
@@ -31829,7 +31829,7 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H12" t="n">
         <v>17.25001940386726</v>
@@ -31838,10 +31838,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J12" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K12" t="n">
-        <v>100.7451197015268</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L12" t="n">
         <v>387.8120847358985</v>
@@ -31856,19 +31856,19 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>341.0678223458549</v>
+        <v>241.4090972701575</v>
       </c>
       <c r="Q12" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S12" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T12" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U12" t="n">
         <v>0.1175069441680331</v>
@@ -31929,7 +31929,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N13" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O13" t="n">
         <v>211.6522236065632</v>
@@ -31941,16 +31941,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R13" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S13" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T13" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U13" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31996,40 +31996,40 @@
         <v>128.6967545176651</v>
       </c>
       <c r="J14" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961203</v>
       </c>
       <c r="K14" t="n">
-        <v>424.6341946041488</v>
+        <v>424.6341946041487</v>
       </c>
       <c r="L14" t="n">
-        <v>526.796267130444</v>
+        <v>526.7962671304439</v>
       </c>
       <c r="M14" t="n">
         <v>586.1623499565518</v>
       </c>
       <c r="N14" t="n">
-        <v>595.6470695927186</v>
+        <v>595.6470695927185</v>
       </c>
       <c r="O14" t="n">
-        <v>562.4526372540886</v>
+        <v>562.4526372540885</v>
       </c>
       <c r="P14" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946991</v>
       </c>
       <c r="Q14" t="n">
-        <v>360.4902833647496</v>
+        <v>360.4902833647495</v>
       </c>
       <c r="R14" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446477</v>
       </c>
       <c r="S14" t="n">
-        <v>76.06970478104648</v>
+        <v>76.06970478104647</v>
       </c>
       <c r="T14" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U14" t="n">
-        <v>0.2670576580354893</v>
+        <v>0.2670576580354892</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32069,19 +32069,19 @@
         <v>1.786105551354102</v>
       </c>
       <c r="H15" t="n">
-        <v>17.25001940386726</v>
+        <v>17.25001940386725</v>
       </c>
       <c r="I15" t="n">
-        <v>61.49530078127064</v>
+        <v>61.49530078127063</v>
       </c>
       <c r="J15" t="n">
-        <v>59.41563758725098</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L15" t="n">
-        <v>387.8120847358985</v>
+        <v>288.1533596602011</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -32093,10 +32093,10 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>341.0678223458549</v>
+        <v>341.0678223458548</v>
       </c>
       <c r="Q15" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>100.1578341526431</v>
@@ -32105,7 +32105,7 @@
         <v>33.17612723677464</v>
       </c>
       <c r="T15" t="n">
-        <v>7.199258779361489</v>
+        <v>7.199258779361488</v>
       </c>
       <c r="U15" t="n">
         <v>0.1175069441680331</v>
@@ -32151,7 +32151,7 @@
         <v>13.31334413990345</v>
       </c>
       <c r="I16" t="n">
-        <v>45.0312294629863</v>
+        <v>45.03122946298629</v>
       </c>
       <c r="J16" t="n">
         <v>105.8669502822383</v>
@@ -32169,7 +32169,7 @@
         <v>229.144705426375</v>
       </c>
       <c r="O16" t="n">
-        <v>211.6522236065632</v>
+        <v>211.6522236065631</v>
       </c>
       <c r="P16" t="n">
         <v>181.1050413469073</v>
@@ -32181,10 +32181,10 @@
         <v>67.32903897337668</v>
       </c>
       <c r="S16" t="n">
-        <v>26.09578805336901</v>
+        <v>26.095788053369</v>
       </c>
       <c r="T16" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892244</v>
       </c>
       <c r="U16" t="n">
         <v>0.08167695791351813</v>
@@ -32312,10 +32312,10 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J18" t="n">
-        <v>168.7478056215733</v>
+        <v>112.0665823708073</v>
       </c>
       <c r="K18" t="n">
-        <v>188.7581524866007</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L18" t="n">
         <v>387.8120847358985</v>
@@ -32330,10 +32330,10 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>227.9948068710956</v>
       </c>
       <c r="R18" t="n">
         <v>100.1578341526431</v>
@@ -32555,7 +32555,7 @@
         <v>288.4168775622982</v>
       </c>
       <c r="L21" t="n">
-        <v>387.8120847358985</v>
+        <v>288.153359660201</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -32567,7 +32567,7 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>241.4090972701575</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -32698,10 +32698,10 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>3.338220725443618</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H23" t="n">
-        <v>34.18755300444946</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I23" t="n">
         <v>128.6967545176652</v>
@@ -32710,37 +32710,37 @@
         <v>283.3273112961205</v>
       </c>
       <c r="K23" t="n">
-        <v>424.6341946041489</v>
+        <v>424.6341946041488</v>
       </c>
       <c r="L23" t="n">
-        <v>526.7962671304441</v>
+        <v>526.796267130444</v>
       </c>
       <c r="M23" t="n">
-        <v>586.162349956552</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N23" t="n">
-        <v>595.6470695927188</v>
+        <v>595.6470695927187</v>
       </c>
       <c r="O23" t="n">
-        <v>562.4526372540888</v>
+        <v>562.4526372540886</v>
       </c>
       <c r="P23" t="n">
-        <v>480.0403130946994</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q23" t="n">
-        <v>360.4902833647497</v>
+        <v>360.4902833647496</v>
       </c>
       <c r="R23" t="n">
         <v>209.6945076446478</v>
       </c>
       <c r="S23" t="n">
-        <v>76.06970478104651</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T23" t="n">
         <v>14.61306122562944</v>
       </c>
       <c r="U23" t="n">
-        <v>0.2670576580354894</v>
+        <v>0.2670576580354893</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32783,16 +32783,16 @@
         <v>17.25001940386726</v>
       </c>
       <c r="I24" t="n">
-        <v>61.49530078127066</v>
+        <v>61.49530078127064</v>
       </c>
       <c r="J24" t="n">
-        <v>168.7478056215734</v>
+        <v>69.08908054587592</v>
       </c>
       <c r="K24" t="n">
-        <v>188.7581524866</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L24" t="n">
-        <v>387.8120847358986</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -32804,7 +32804,7 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>341.067822345855</v>
+        <v>341.0678223458549</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -32816,7 +32816,7 @@
         <v>33.17612723677465</v>
       </c>
       <c r="T24" t="n">
-        <v>7.199258779361492</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U24" t="n">
         <v>0.1175069441680331</v>
@@ -32856,49 +32856,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.497410895081165</v>
+        <v>1.497410895081164</v>
       </c>
       <c r="H25" t="n">
-        <v>13.31334413990346</v>
+        <v>13.31334413990345</v>
       </c>
       <c r="I25" t="n">
-        <v>45.03122946298631</v>
+        <v>45.0312294629863</v>
       </c>
       <c r="J25" t="n">
         <v>105.8669502822383</v>
       </c>
       <c r="K25" t="n">
-        <v>173.9719203557935</v>
+        <v>173.9719203557934</v>
       </c>
       <c r="L25" t="n">
-        <v>222.6241616196125</v>
+        <v>222.6241616196124</v>
       </c>
       <c r="M25" t="n">
-        <v>234.725964217132</v>
+        <v>234.7259642171319</v>
       </c>
       <c r="N25" t="n">
         <v>229.1447054263751</v>
       </c>
       <c r="O25" t="n">
-        <v>211.6522236065633</v>
+        <v>211.6522236065632</v>
       </c>
       <c r="P25" t="n">
         <v>181.1050413469073</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.3877432235692</v>
+        <v>125.3877432235691</v>
       </c>
       <c r="R25" t="n">
-        <v>67.32903897337671</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S25" t="n">
-        <v>26.09578805336902</v>
+        <v>26.09578805336901</v>
       </c>
       <c r="T25" t="n">
-        <v>6.398028369892248</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U25" t="n">
-        <v>0.08167695791351817</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33023,7 +33023,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J27" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K27" t="n">
         <v>288.4168775622982</v>
@@ -33032,19 +33032,19 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M27" t="n">
-        <v>34.7174057112735</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>241.4090972701572</v>
       </c>
       <c r="P27" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>100.1578341526431</v>
@@ -33172,16 +33172,16 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>3.338220725443617</v>
+        <v>3.338220725443616</v>
       </c>
       <c r="H29" t="n">
-        <v>34.18755300444945</v>
+        <v>34.18755300444944</v>
       </c>
       <c r="I29" t="n">
-        <v>128.6967545176652</v>
+        <v>128.6967545176651</v>
       </c>
       <c r="J29" t="n">
-        <v>283.3273112961205</v>
+        <v>283.3273112961204</v>
       </c>
       <c r="K29" t="n">
         <v>424.6341946041488</v>
@@ -33190,7 +33190,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1623499565519</v>
+        <v>586.1623499565518</v>
       </c>
       <c r="N29" t="n">
         <v>595.6470695927186</v>
@@ -33199,7 +33199,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P29" t="n">
-        <v>480.0403130946993</v>
+        <v>480.0403130946992</v>
       </c>
       <c r="Q29" t="n">
         <v>360.4902833647496</v>
@@ -33208,7 +33208,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S29" t="n">
-        <v>76.0697047810465</v>
+        <v>76.06970478104648</v>
       </c>
       <c r="T29" t="n">
         <v>14.61306122562944</v>
@@ -33251,7 +33251,7 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>1.786105551354103</v>
+        <v>1.786105551354102</v>
       </c>
       <c r="H30" t="n">
         <v>17.25001940386726</v>
@@ -33260,7 +33260,7 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J30" t="n">
-        <v>168.7478056215734</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K30" t="n">
         <v>288.4168775622982</v>
@@ -33269,10 +33269,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M30" t="n">
-        <v>241.4090972701574</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O30" t="n">
         <v>0</v>
@@ -33287,10 +33287,10 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S30" t="n">
-        <v>33.17612723677465</v>
+        <v>33.17612723677464</v>
       </c>
       <c r="T30" t="n">
-        <v>7.19925877936149</v>
+        <v>7.199258779361489</v>
       </c>
       <c r="U30" t="n">
         <v>0.1175069441680331</v>
@@ -33351,7 +33351,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N31" t="n">
-        <v>229.1447054263751</v>
+        <v>229.144705426375</v>
       </c>
       <c r="O31" t="n">
         <v>211.6522236065632</v>
@@ -33363,16 +33363,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R31" t="n">
-        <v>67.3290389733767</v>
+        <v>67.32903897337668</v>
       </c>
       <c r="S31" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T31" t="n">
-        <v>6.398028369892246</v>
+        <v>6.398028369892245</v>
       </c>
       <c r="U31" t="n">
-        <v>0.08167695791351814</v>
+        <v>0.08167695791351813</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,16 +33409,16 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>3.338220725443616</v>
+        <v>3.338220725443617</v>
       </c>
       <c r="H32" t="n">
-        <v>34.18755300444944</v>
+        <v>34.18755300444945</v>
       </c>
       <c r="I32" t="n">
-        <v>128.6967545176651</v>
+        <v>128.6967545176652</v>
       </c>
       <c r="J32" t="n">
-        <v>283.3273112961204</v>
+        <v>283.3273112961205</v>
       </c>
       <c r="K32" t="n">
         <v>424.6341946041488</v>
@@ -33427,7 +33427,7 @@
         <v>526.796267130444</v>
       </c>
       <c r="M32" t="n">
-        <v>586.1623499565518</v>
+        <v>586.1623499565519</v>
       </c>
       <c r="N32" t="n">
         <v>595.6470695927186</v>
@@ -33436,7 +33436,7 @@
         <v>562.4526372540886</v>
       </c>
       <c r="P32" t="n">
-        <v>480.0403130946992</v>
+        <v>480.0403130946993</v>
       </c>
       <c r="Q32" t="n">
         <v>360.4902833647496</v>
@@ -33445,7 +33445,7 @@
         <v>209.6945076446478</v>
       </c>
       <c r="S32" t="n">
-        <v>76.06970478104648</v>
+        <v>76.0697047810465</v>
       </c>
       <c r="T32" t="n">
         <v>14.61306122562944</v>
@@ -33488,7 +33488,7 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>1.786105551354102</v>
+        <v>1.786105551354103</v>
       </c>
       <c r="H33" t="n">
         <v>17.25001940386726</v>
@@ -33497,37 +33497,37 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J33" t="n">
-        <v>168.7478056215733</v>
+        <v>168.7478056215734</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M33" t="n">
-        <v>452.5584109724845</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O33" t="n">
-        <v>184.8312692908962</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>100.1578341526431</v>
       </c>
       <c r="S33" t="n">
-        <v>33.17612723677464</v>
+        <v>33.17612723677465</v>
       </c>
       <c r="T33" t="n">
-        <v>7.199258779361489</v>
+        <v>7.19925877936149</v>
       </c>
       <c r="U33" t="n">
         <v>0.1175069441680331</v>
@@ -33588,7 +33588,7 @@
         <v>234.7259642171319</v>
       </c>
       <c r="N34" t="n">
-        <v>229.144705426375</v>
+        <v>229.1447054263751</v>
       </c>
       <c r="O34" t="n">
         <v>211.6522236065632</v>
@@ -33600,16 +33600,16 @@
         <v>125.3877432235691</v>
       </c>
       <c r="R34" t="n">
-        <v>67.32903897337668</v>
+        <v>67.3290389733767</v>
       </c>
       <c r="S34" t="n">
         <v>26.09578805336901</v>
       </c>
       <c r="T34" t="n">
-        <v>6.398028369892245</v>
+        <v>6.398028369892246</v>
       </c>
       <c r="U34" t="n">
-        <v>0.08167695791351813</v>
+        <v>0.08167695791351814</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33743,10 +33743,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M36" t="n">
-        <v>452.5584109724846</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>224.6051223555648</v>
+        <v>425.8974584957643</v>
       </c>
       <c r="O36" t="n">
         <v>0</v>
@@ -33980,10 +33980,10 @@
         <v>387.8120847358985</v>
       </c>
       <c r="M39" t="n">
-        <v>212.6272478467031</v>
+        <v>452.5584109724846</v>
       </c>
       <c r="N39" t="n">
-        <v>464.5362854813462</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -34153,7 +34153,7 @@
         <v>360.4902833647496</v>
       </c>
       <c r="R41" t="n">
-        <v>209.6945076446478</v>
+        <v>209.6945076446473</v>
       </c>
       <c r="S41" t="n">
         <v>76.0697047810465</v>
@@ -34445,28 +34445,28 @@
         <v>61.49530078127064</v>
       </c>
       <c r="J45" t="n">
-        <v>0.7465913262578567</v>
+        <v>168.7478056215733</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>288.4168775622982</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>387.8120847358985</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>452.5584109724845</v>
       </c>
       <c r="N45" t="n">
-        <v>464.5362854813461</v>
+        <v>224.6051223555648</v>
       </c>
       <c r="O45" t="n">
-        <v>424.9599466855526</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>341.0678223458549</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>227.9948068710956</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>100.1578341526431</v>
@@ -34778,13 +34778,13 @@
         <v>76.01733575770692</v>
       </c>
       <c r="K3" t="n">
-        <v>138.389756104752</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
         <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.005506727916</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338903</v>
@@ -34948,10 +34948,10 @@
         <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.5635087530452</v>
+        <v>406.5635087530451</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116798</v>
+        <v>308.9376163116797</v>
       </c>
       <c r="Q5" t="n">
         <v>153.9975062898689</v>
@@ -35012,7 +35012,7 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.0173357577069</v>
+        <v>76.01733575770689</v>
       </c>
       <c r="K6" t="n">
         <v>257.8255762031298</v>
@@ -35024,13 +35024,13 @@
         <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
-        <v>559.3197334338902</v>
+        <v>439.8839133355123</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245898</v>
+        <v>444.5817404245897</v>
       </c>
       <c r="P6" t="n">
-        <v>220.205405775187</v>
+        <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
         <v>173.8110948137341</v>
@@ -35094,7 +35094,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713954</v>
+        <v>56.87090208713953</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
@@ -35109,7 +35109,7 @@
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873149</v>
+        <v>79.66383317873148</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,19 +35170,19 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>116.937228518131</v>
+        <v>116.9372285181311</v>
       </c>
       <c r="K8" t="n">
-        <v>297.2230414343419</v>
+        <v>297.223041434342</v>
       </c>
       <c r="L8" t="n">
-        <v>421.5361394435301</v>
+        <v>421.5361394435302</v>
       </c>
       <c r="M8" t="n">
-        <v>485.8144648060965</v>
+        <v>485.8144648060966</v>
       </c>
       <c r="N8" t="n">
-        <v>478.8956552492236</v>
+        <v>478.8956552492237</v>
       </c>
       <c r="O8" t="n">
         <v>406.5635087530452</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>76.01733575770692</v>
       </c>
       <c r="K9" t="n">
         <v>257.8255762031298</v>
       </c>
       <c r="L9" t="n">
-        <v>365.2844632307155</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M9" t="n">
         <v>529.4413268262938</v>
       </c>
       <c r="N9" t="n">
-        <v>559.3197334338902</v>
+        <v>559.3197334338903</v>
       </c>
       <c r="O9" t="n">
         <v>444.5817404245898</v>
       </c>
       <c r="P9" t="n">
-        <v>339.6412258735646</v>
+        <v>339.6412258735647</v>
       </c>
       <c r="Q9" t="n">
-        <v>173.8110948137341</v>
+        <v>54.37527471535575</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35410,13 +35410,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K11" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L11" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M11" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N11" t="n">
         <v>803.5809304081118</v>
@@ -35431,7 +35431,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R11" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35489,7 +35489,7 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K12" t="n">
-        <v>227.3689177397464</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L12" t="n">
         <v>620.0980502594834</v>
@@ -35504,10 +35504,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P12" t="n">
-        <v>525.5561835714618</v>
+        <v>425.8974584957645</v>
       </c>
       <c r="Q12" t="n">
-        <v>88.0130327850741</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35565,10 +35565,10 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>12.50777016556552</v>
+        <v>12.50777016556553</v>
       </c>
       <c r="K13" t="n">
-        <v>151.7024285299105</v>
+        <v>151.7024285299106</v>
       </c>
       <c r="L13" t="n">
         <v>250.2141868799285</v>
@@ -35580,13 +35580,13 @@
         <v>273.2768778056036</v>
       </c>
       <c r="O13" t="n">
-        <v>236.2373515206028</v>
+        <v>236.2373515206029</v>
       </c>
       <c r="P13" t="n">
-        <v>178.3836006118007</v>
+        <v>178.3836006118008</v>
       </c>
       <c r="Q13" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187476</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>271.3780219415079</v>
+        <v>271.3780219415078</v>
       </c>
       <c r="K14" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303329</v>
       </c>
       <c r="L14" t="n">
-        <v>708.6910667109072</v>
+        <v>708.6910667109071</v>
       </c>
       <c r="M14" t="n">
         <v>805.3296502221116</v>
       </c>
       <c r="N14" t="n">
-        <v>803.5809304081118</v>
+        <v>803.5809304081117</v>
       </c>
       <c r="O14" t="n">
-        <v>713.1546070951472</v>
+        <v>713.1546070951471</v>
       </c>
       <c r="P14" t="n">
-        <v>570.6060255109123</v>
+        <v>570.6060255109122</v>
       </c>
       <c r="Q14" t="n">
-        <v>350.4995841502048</v>
+        <v>350.4995841502047</v>
       </c>
       <c r="R14" t="n">
-        <v>59.82538970349808</v>
+        <v>59.82538970349805</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,13 +35723,13 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>58.66904626099312</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K15" t="n">
-        <v>126.6237980382196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L15" t="n">
-        <v>620.0980502594834</v>
+        <v>520.4393251837861</v>
       </c>
       <c r="M15" t="n">
         <v>323.5710298279816</v>
@@ -35744,7 +35744,7 @@
         <v>525.5561835714618</v>
       </c>
       <c r="Q15" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>12.50777016556552</v>
+        <v>12.5077701655655</v>
       </c>
       <c r="K16" t="n">
         <v>151.7024285299105</v>
@@ -35811,7 +35811,7 @@
         <v>250.2141868799285</v>
       </c>
       <c r="M16" t="n">
-        <v>274.3098411789725</v>
+        <v>274.3098411789724</v>
       </c>
       <c r="N16" t="n">
         <v>273.2768778056036</v>
@@ -35823,7 +35823,7 @@
         <v>178.3836006118007</v>
       </c>
       <c r="Q16" t="n">
-        <v>39.22569997187475</v>
+        <v>39.22569997187472</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,10 +35960,10 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>168.0012142953155</v>
+        <v>111.3199910445494</v>
       </c>
       <c r="K18" t="n">
-        <v>315.3819505248204</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L18" t="n">
         <v>620.0980502594834</v>
@@ -35978,10 +35978,10 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P18" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>298.0903205209232</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36142,7 +36142,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R20" t="n">
-        <v>59.82538970349858</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36203,7 +36203,7 @@
         <v>415.0406756005178</v>
       </c>
       <c r="L21" t="n">
-        <v>620.0980502594834</v>
+        <v>520.439325183786</v>
       </c>
       <c r="M21" t="n">
         <v>323.5710298279816</v>
@@ -36215,7 +36215,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P21" t="n">
-        <v>425.8974584957645</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>271.378021941508</v>
+        <v>271.3780219415079</v>
       </c>
       <c r="K23" t="n">
         <v>528.6897561303331</v>
       </c>
       <c r="L23" t="n">
-        <v>708.6910667109073</v>
+        <v>708.6910667109072</v>
       </c>
       <c r="M23" t="n">
-        <v>805.3296502221118</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N23" t="n">
-        <v>803.5809304081121</v>
+        <v>803.580930408112</v>
       </c>
       <c r="O23" t="n">
-        <v>713.1546070951474</v>
+        <v>713.1546070951472</v>
       </c>
       <c r="P23" t="n">
-        <v>570.6060255109126</v>
+        <v>570.6060255109123</v>
       </c>
       <c r="Q23" t="n">
-        <v>350.4995841502049</v>
+        <v>350.4995841502048</v>
       </c>
       <c r="R23" t="n">
-        <v>59.82538970349816</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,13 +36434,13 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>168.0012142953156</v>
+        <v>68.34248921961806</v>
       </c>
       <c r="K24" t="n">
-        <v>315.3819505248196</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0980502594837</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M24" t="n">
         <v>323.5710298279816</v>
@@ -36452,7 +36452,7 @@
         <v>251.2660748322851</v>
       </c>
       <c r="P24" t="n">
-        <v>525.5561835714619</v>
+        <v>525.5561835714618</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>80.63966029520624</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K25" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L25" t="n">
-        <v>318.3460770095693</v>
+        <v>318.3460770095692</v>
       </c>
       <c r="M25" t="n">
-        <v>342.4417313086133</v>
+        <v>342.4417313086132</v>
       </c>
       <c r="N25" t="n">
-        <v>341.4087679352444</v>
+        <v>341.4087679352443</v>
       </c>
       <c r="O25" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P25" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q25" t="n">
-        <v>107.3575901015155</v>
+        <v>107.3575901015154</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K27" t="n">
-        <v>150.5754385879392</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L27" t="n">
         <v>620.0980502594834</v>
       </c>
       <c r="M27" t="n">
-        <v>358.2884355392551</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N27" t="n">
         <v>348.0006622602202</v>
       </c>
       <c r="O27" t="n">
-        <v>251.2660748322851</v>
+        <v>492.6751721024423</v>
       </c>
       <c r="P27" t="n">
-        <v>525.5561835714618</v>
+        <v>184.4883612256069</v>
       </c>
       <c r="Q27" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K28" t="n">
         <v>219.8343186595512</v>
@@ -36762,7 +36762,7 @@
         <v>342.4417313086132</v>
       </c>
       <c r="N28" t="n">
-        <v>341.4087679352443</v>
+        <v>341.4087679352442</v>
       </c>
       <c r="O28" t="n">
         <v>304.3692416502435</v>
@@ -36832,13 +36832,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K29" t="n">
-        <v>528.6897561303331</v>
+        <v>528.689756130333</v>
       </c>
       <c r="L29" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M29" t="n">
-        <v>805.3296502221117</v>
+        <v>805.3296502221116</v>
       </c>
       <c r="N29" t="n">
         <v>803.5809304081118</v>
@@ -36853,7 +36853,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R29" t="n">
-        <v>59.8253897034981</v>
+        <v>59.82538970349808</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36917,16 +36917,16 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M30" t="n">
-        <v>564.980127098139</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N30" t="n">
-        <v>348.0006622602202</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O30" t="n">
         <v>251.2660748322851</v>
       </c>
       <c r="P30" t="n">
-        <v>184.4883612256069</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,10 +36987,10 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>80.63966029520621</v>
+        <v>80.63966029520616</v>
       </c>
       <c r="K31" t="n">
-        <v>219.8343186595513</v>
+        <v>219.8343186595512</v>
       </c>
       <c r="L31" t="n">
         <v>318.3460770095692</v>
@@ -37002,10 +37002,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O31" t="n">
-        <v>304.3692416502436</v>
+        <v>304.3692416502435</v>
       </c>
       <c r="P31" t="n">
-        <v>246.5154907414415</v>
+        <v>246.5154907414414</v>
       </c>
       <c r="Q31" t="n">
         <v>107.3575901015154</v>
@@ -37069,13 +37069,13 @@
         <v>271.3780219415079</v>
       </c>
       <c r="K32" t="n">
-        <v>528.689756130333</v>
+        <v>528.6897561303331</v>
       </c>
       <c r="L32" t="n">
         <v>708.6910667109072</v>
       </c>
       <c r="M32" t="n">
-        <v>805.3296502221116</v>
+        <v>805.3296502221117</v>
       </c>
       <c r="N32" t="n">
         <v>803.5809304081118</v>
@@ -37090,7 +37090,7 @@
         <v>350.4995841502048</v>
       </c>
       <c r="R32" t="n">
-        <v>59.82538970349808</v>
+        <v>59.8253897034981</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37148,25 +37148,25 @@
         <v>168.0012142953155</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M33" t="n">
-        <v>776.1294408004661</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N33" t="n">
-        <v>348.0006622602202</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O33" t="n">
-        <v>436.0973441231812</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P33" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K34" t="n">
         <v>219.8343186595512</v>
@@ -37391,13 +37391,13 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M36" t="n">
-        <v>776.1294408004662</v>
+        <v>323.5710298279816</v>
       </c>
       <c r="N36" t="n">
-        <v>572.6057846157851</v>
+        <v>773.8981207559846</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>251.2660748322851</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37461,7 +37461,7 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K37" t="n">
         <v>219.8343186595512</v>
@@ -37628,10 +37628,10 @@
         <v>620.0980502594834</v>
       </c>
       <c r="M39" t="n">
-        <v>536.1982776746847</v>
+        <v>776.1294408004662</v>
       </c>
       <c r="N39" t="n">
-        <v>812.5369477415665</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>80.63966029520616</v>
+        <v>80.63966029520617</v>
       </c>
       <c r="K40" t="n">
         <v>219.8343186595512</v>
@@ -37935,10 +37935,10 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>80.63966029520617</v>
+        <v>80.63966029520621</v>
       </c>
       <c r="K43" t="n">
-        <v>219.8343186595512</v>
+        <v>219.8343186595513</v>
       </c>
       <c r="L43" t="n">
         <v>318.3460770095692</v>
@@ -37950,10 +37950,10 @@
         <v>341.4087679352443</v>
       </c>
       <c r="O43" t="n">
-        <v>304.3692416502435</v>
+        <v>304.3692416502436</v>
       </c>
       <c r="P43" t="n">
-        <v>246.5154907414414</v>
+        <v>246.5154907414415</v>
       </c>
       <c r="Q43" t="n">
         <v>107.3575901015154</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>168.0012142953155</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>415.0406756005178</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>620.0980502594834</v>
       </c>
       <c r="M45" t="n">
-        <v>239.4656922197792</v>
+        <v>776.1294408004661</v>
       </c>
       <c r="N45" t="n">
-        <v>812.5369477415663</v>
+        <v>572.6057846157851</v>
       </c>
       <c r="O45" t="n">
-        <v>676.2260215178376</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>525.5561835714618</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>298.0903205209232</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>80.6396602952062</v>
+        <v>80.63966029520618</v>
       </c>
       <c r="K46" t="n">
         <v>219.8343186595512</v>
